--- a/data_year/zb/卫生/每万人口卫生技术人员数.xlsx
+++ b/data_year/zb/卫生/每万人口卫生技术人员数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,715 +483,409 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.1</v>
+        <v>30.407556324</v>
       </c>
       <c r="C2" t="n">
-        <v>11.7</v>
+        <v>13.172602135</v>
       </c>
       <c r="D2" t="n">
-        <v>5.4</v>
+        <v>8.854403153</v>
       </c>
       <c r="E2" t="n">
-        <v>36.3</v>
+        <v>43.897460799</v>
       </c>
       <c r="F2" t="n">
-        <v>51.7</v>
+        <v>76.176114762</v>
       </c>
       <c r="G2" t="n">
-        <v>23.1</v>
+        <v>29.700613976</v>
       </c>
       <c r="H2" t="n">
-        <v>16.4</v>
+        <v>30.944215996</v>
       </c>
       <c r="I2" t="n">
-        <v>16.8</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>10.2</v>
+        <v>15.299982818</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.8</v>
+        <v>31.9</v>
       </c>
       <c r="C3" t="n">
-        <v>11.7</v>
+        <v>13.3</v>
       </c>
       <c r="D3" t="n">
-        <v>5.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>36.2</v>
+        <v>45.8</v>
       </c>
       <c r="F3" t="n">
-        <v>51.5</v>
+        <v>79</v>
       </c>
       <c r="G3" t="n">
-        <v>23.2</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>16.5</v>
+        <v>32.9</v>
       </c>
       <c r="I3" t="n">
-        <v>16.9</v>
+        <v>18.2</v>
       </c>
       <c r="J3" t="n">
-        <v>10.3</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>34.10904443</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>14.035311043</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>10.904522546</v>
       </c>
       <c r="E4" t="n">
-        <v>34.1</v>
+        <v>49.384859514</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>85.350432424</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>31.902408948</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>36.459144953</v>
       </c>
       <c r="I4" t="n">
-        <v>14.7</v>
+        <v>19.353307589</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>18.469520766</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.5844903299356</v>
+        <v>36.421252589</v>
       </c>
       <c r="C5" t="n">
-        <v>10.353334969997</v>
+        <v>14.842828862</v>
       </c>
       <c r="D5" t="n">
-        <v>4.99836605375194</v>
+        <v>12.200155675</v>
       </c>
       <c r="E5" t="n">
-        <v>34.7591289285699</v>
+        <v>52.66426759</v>
       </c>
       <c r="F5" t="n">
-        <v>48.8164489674566</v>
+        <v>91.844098299</v>
       </c>
       <c r="G5" t="n">
-        <v>21.2513557715518</v>
+        <v>33.942783446</v>
       </c>
       <c r="H5" t="n">
-        <v>15.8709184695529</v>
+        <v>40.026873864</v>
       </c>
       <c r="I5" t="n">
-        <v>15.411267034191</v>
+        <v>20.4</v>
       </c>
       <c r="J5" t="n">
-        <v>10.0444778647758</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.4379367944626</v>
+        <v>37.731449533</v>
       </c>
       <c r="C6" t="n">
-        <v>10.4135992375484</v>
+        <v>15.070834388</v>
       </c>
       <c r="D6" t="n">
-        <v>5.03649941434358</v>
+        <v>13.068889316</v>
       </c>
       <c r="E6" t="n">
-        <v>35.31201756746</v>
+        <v>55.633119504</v>
       </c>
       <c r="F6" t="n">
-        <v>49.9096840417686</v>
+        <v>96.978979462</v>
       </c>
       <c r="G6" t="n">
-        <v>21.7773547368893</v>
+        <v>35.397220078</v>
       </c>
       <c r="H6" t="n">
-        <v>16.2671255699519</v>
+        <v>42.9547731</v>
       </c>
       <c r="I6" t="n">
-        <v>15.7389942648871</v>
+        <v>21.230113178</v>
       </c>
       <c r="J6" t="n">
-        <v>10.2995060573891</v>
+        <v>22.049410625</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.9</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>12.6</v>
+        <v>15.5</v>
       </c>
       <c r="D7" t="n">
-        <v>6.5</v>
+        <v>13.9</v>
       </c>
       <c r="E7" t="n">
-        <v>34.966596693</v>
+        <v>58.4</v>
       </c>
       <c r="F7" t="n">
-        <v>58.2</v>
+        <v>102.1</v>
       </c>
       <c r="G7" t="n">
-        <v>24.6</v>
+        <v>37.2</v>
       </c>
       <c r="H7" t="n">
-        <v>21</v>
+        <v>45.8</v>
       </c>
       <c r="I7" t="n">
-        <v>15.6</v>
+        <v>22.2</v>
       </c>
       <c r="J7" t="n">
-        <v>10.33961816</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>40.8</v>
       </c>
       <c r="C8" t="n">
-        <v>12.6</v>
+        <v>16.1</v>
       </c>
       <c r="D8" t="n">
-        <v>6.6</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>36.034407553</v>
+        <v>61.2</v>
       </c>
       <c r="F8" t="n">
-        <v>60.9</v>
+        <v>104.2</v>
       </c>
       <c r="G8" t="n">
-        <v>25.6</v>
+        <v>37.9</v>
       </c>
       <c r="H8" t="n">
-        <v>22.2</v>
+        <v>47.5</v>
       </c>
       <c r="I8" t="n">
-        <v>15.996812346</v>
+        <v>23.1</v>
       </c>
       <c r="J8" t="n">
-        <v>10.870024604</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26.9</v>
+        <v>42.783076146</v>
       </c>
       <c r="C9" t="n">
-        <v>12.3</v>
+        <v>16.794363434</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>16.249821891</v>
       </c>
       <c r="E9" t="n">
-        <v>37.249607654</v>
+        <v>64.694908415</v>
       </c>
       <c r="F9" t="n">
-        <v>64.40000000000001</v>
+        <v>108.737852064</v>
       </c>
       <c r="G9" t="n">
-        <v>26.1</v>
+        <v>39.686279015</v>
       </c>
       <c r="H9" t="n">
-        <v>24.2</v>
+        <v>50.092702317</v>
       </c>
       <c r="I9" t="n">
-        <v>16.095080327</v>
+        <v>24.427747914</v>
       </c>
       <c r="J9" t="n">
-        <v>11.818300366</v>
+        <v>27.410836011</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>46.3</v>
       </c>
       <c r="C10" t="n">
-        <v>12.6</v>
+        <v>18.2</v>
       </c>
       <c r="D10" t="n">
-        <v>7.6</v>
+        <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>39.031454606</v>
+        <v>68.3</v>
       </c>
       <c r="F10" t="n">
-        <v>66.8</v>
+        <v>109.1</v>
       </c>
       <c r="G10" t="n">
-        <v>26.8</v>
+        <v>40.1</v>
       </c>
       <c r="H10" t="n">
-        <v>25.4</v>
+        <v>50.8</v>
       </c>
       <c r="I10" t="n">
-        <v>16.609118064</v>
+        <v>25.9</v>
       </c>
       <c r="J10" t="n">
-        <v>12.657959448</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.4</v>
+        <v>49.640248763</v>
       </c>
       <c r="C11" t="n">
-        <v>13.1</v>
+        <v>19.629275654</v>
       </c>
       <c r="D11" t="n">
-        <v>8.1</v>
+        <v>19.850665269</v>
       </c>
       <c r="E11" t="n">
-        <v>41.548746434</v>
+        <v>72.57385083200001</v>
       </c>
       <c r="F11" t="n">
-        <v>71.5</v>
+        <v>111.043205786</v>
       </c>
       <c r="G11" t="n">
-        <v>28.3</v>
+        <v>41.015924213</v>
       </c>
       <c r="H11" t="n">
-        <v>28.2</v>
+        <v>52.195669324</v>
       </c>
       <c r="I11" t="n">
-        <v>17.48390632</v>
+        <v>27.665290646</v>
       </c>
       <c r="J11" t="n">
-        <v>13.922969524</v>
+        <v>31.80144518</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30.407556324</v>
+        <v>51.8</v>
       </c>
       <c r="C12" t="n">
-        <v>13.172602135</v>
+        <v>20.6</v>
       </c>
       <c r="D12" t="n">
-        <v>8.854403153</v>
+        <v>21</v>
       </c>
       <c r="E12" t="n">
-        <v>43.897460799</v>
+        <v>75.7</v>
       </c>
       <c r="F12" t="n">
-        <v>76.176114762</v>
+        <v>114.6</v>
       </c>
       <c r="G12" t="n">
-        <v>29.700613976</v>
+        <v>42.5</v>
       </c>
       <c r="H12" t="n">
-        <v>30.944215996</v>
+        <v>54</v>
       </c>
       <c r="I12" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J12" t="n">
-        <v>15.299982818</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.9</v>
+        <v>62.7</v>
       </c>
       <c r="C13" t="n">
-        <v>13.3</v>
+        <v>24.2</v>
       </c>
       <c r="D13" t="n">
-        <v>9.800000000000001</v>
+        <v>26.4</v>
       </c>
       <c r="E13" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="G13" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="H13" t="n">
         <v>45.8</v>
       </c>
-      <c r="F13" t="n">
-        <v>79</v>
-      </c>
-      <c r="G13" t="n">
-        <v>30</v>
-      </c>
-      <c r="H13" t="n">
-        <v>32.9</v>
-      </c>
       <c r="I13" t="n">
-        <v>18.2</v>
+        <v>30.4</v>
       </c>
       <c r="J13" t="n">
-        <v>16.6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>34.10904443</v>
-      </c>
-      <c r="C14" t="n">
-        <v>14.035311043</v>
-      </c>
-      <c r="D14" t="n">
-        <v>10.904522546</v>
-      </c>
-      <c r="E14" t="n">
-        <v>49.384859514</v>
-      </c>
-      <c r="F14" t="n">
-        <v>85.350432424</v>
-      </c>
-      <c r="G14" t="n">
-        <v>31.902408948</v>
-      </c>
-      <c r="H14" t="n">
-        <v>36.459144953</v>
-      </c>
-      <c r="I14" t="n">
-        <v>19.353307589</v>
-      </c>
-      <c r="J14" t="n">
-        <v>18.469520766</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>36.421252589</v>
-      </c>
-      <c r="C15" t="n">
-        <v>14.842828862</v>
-      </c>
-      <c r="D15" t="n">
-        <v>12.200155675</v>
-      </c>
-      <c r="E15" t="n">
-        <v>52.66426759</v>
-      </c>
-      <c r="F15" t="n">
-        <v>91.844098299</v>
-      </c>
-      <c r="G15" t="n">
-        <v>33.942783446</v>
-      </c>
-      <c r="H15" t="n">
-        <v>40.026873864</v>
-      </c>
-      <c r="I15" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>37.731449533</v>
-      </c>
-      <c r="C16" t="n">
-        <v>15.070834388</v>
-      </c>
-      <c r="D16" t="n">
-        <v>13.068889316</v>
-      </c>
-      <c r="E16" t="n">
-        <v>55.633119504</v>
-      </c>
-      <c r="F16" t="n">
-        <v>96.978979462</v>
-      </c>
-      <c r="G16" t="n">
-        <v>35.397220078</v>
-      </c>
-      <c r="H16" t="n">
-        <v>42.9547731</v>
-      </c>
-      <c r="I16" t="n">
-        <v>21.230113178</v>
-      </c>
-      <c r="J16" t="n">
-        <v>22.049410625</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>39</v>
-      </c>
-      <c r="C17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="E17" t="n">
-        <v>58.4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="I17" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>23.7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>15</v>
-      </c>
-      <c r="E18" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>104.2</v>
-      </c>
-      <c r="G18" t="n">
-        <v>37.9</v>
-      </c>
-      <c r="H18" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>42.783076146</v>
-      </c>
-      <c r="C19" t="n">
-        <v>16.794363434</v>
-      </c>
-      <c r="D19" t="n">
-        <v>16.249821891</v>
-      </c>
-      <c r="E19" t="n">
-        <v>64.694908415</v>
-      </c>
-      <c r="F19" t="n">
-        <v>108.737852064</v>
-      </c>
-      <c r="G19" t="n">
-        <v>39.686279015</v>
-      </c>
-      <c r="H19" t="n">
-        <v>50.092702317</v>
-      </c>
-      <c r="I19" t="n">
-        <v>24.427747914</v>
-      </c>
-      <c r="J19" t="n">
-        <v>27.410836011</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>18</v>
-      </c>
-      <c r="E20" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>109.1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="I20" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>29.4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>49.640248763</v>
-      </c>
-      <c r="C21" t="n">
-        <v>19.629275654</v>
-      </c>
-      <c r="D21" t="n">
-        <v>19.850665269</v>
-      </c>
-      <c r="E21" t="n">
-        <v>72.57385083200001</v>
-      </c>
-      <c r="F21" t="n">
-        <v>111.043205786</v>
-      </c>
-      <c r="G21" t="n">
-        <v>41.015924213</v>
-      </c>
-      <c r="H21" t="n">
-        <v>52.195669324</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27.665290646</v>
-      </c>
-      <c r="J21" t="n">
-        <v>31.80144518</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="C22" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="D22" t="n">
-        <v>21</v>
-      </c>
-      <c r="E22" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="F22" t="n">
-        <v>114.6</v>
-      </c>
-      <c r="G22" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H22" t="n">
-        <v>54</v>
-      </c>
-      <c r="I22" t="n">
-        <v>29</v>
-      </c>
-      <c r="J22" t="n">
-        <v>33.4</v>
+        <v>35.6</v>
       </c>
     </row>
   </sheetData>
